--- a/ket_qua_phase1.xlsx
+++ b/ket_qua_phase1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>MaHP</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>ECO03H</t>
-  </si>
-  <si>
-    <t>ENG01A</t>
-  </si>
-  <si>
-    <t>ENG02A</t>
-  </si>
-  <si>
-    <t>ENG04A</t>
   </si>
   <si>
     <t>ENG11H</t>
@@ -651,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,13 +673,13 @@
         <v>45999</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -696,16 +687,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -713,16 +704,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45999</v>
+        <v>46007</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -730,16 +721,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -747,16 +738,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45999</v>
+        <v>46013</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -764,16 +755,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>46000</v>
+        <v>46009</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -781,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>46010</v>
+        <v>46022</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -798,16 +789,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>45999</v>
+        <v>46014</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -815,16 +806,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -832,16 +823,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -849,16 +840,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>46010</v>
+        <v>46000</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -866,16 +857,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>46001</v>
+        <v>46015</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -886,13 +877,13 @@
         <v>46000</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -900,16 +891,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>46002</v>
+        <v>46006</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -917,16 +908,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -934,16 +925,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>45999</v>
+        <v>46009</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -951,16 +942,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>46001</v>
+        <v>46020</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -968,16 +959,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>46006</v>
+        <v>46014</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -985,16 +976,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1002,16 +993,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>46003</v>
+        <v>46016</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1025,10 +1016,10 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1036,16 +1027,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1053,16 +1044,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>46001</v>
+        <v>46020</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1070,16 +1061,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>45999</v>
+        <v>46004</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1087,16 +1078,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>46006</v>
+        <v>46011</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1104,16 +1095,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1121,16 +1112,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>46017</v>
+        <v>46015</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1138,16 +1129,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>46010</v>
+        <v>46014</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1155,16 +1146,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>46008</v>
+        <v>46016</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1172,16 +1163,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1189,16 +1180,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>46017</v>
+        <v>46011</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1206,16 +1197,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>46015</v>
+        <v>46004</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1223,16 +1214,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>45999</v>
+        <v>46008</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1240,16 +1231,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1257,16 +1248,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>46010</v>
+        <v>46000</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1274,16 +1265,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1291,16 +1282,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1314,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1325,16 +1316,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1342,16 +1333,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>46015</v>
+        <v>46000</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1359,16 +1350,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1376,16 +1367,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1393,16 +1384,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="2">
-        <v>45999</v>
+        <v>46009</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1410,16 +1401,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="2">
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1430,13 +1421,13 @@
         <v>46001</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1444,16 +1435,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="2">
-        <v>46003</v>
+        <v>46020</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1461,16 +1452,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="2">
-        <v>46000</v>
+        <v>46022</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1478,16 +1469,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="2">
-        <v>46000</v>
+        <v>46017</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1495,16 +1486,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="2">
-        <v>46002</v>
+        <v>46022</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1512,16 +1503,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="2">
-        <v>46000</v>
+        <v>46010</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1529,16 +1520,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="2">
-        <v>45999</v>
+        <v>46022</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1546,16 +1537,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="2">
-        <v>46001</v>
+        <v>46011</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1563,16 +1554,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="2">
-        <v>46006</v>
+        <v>46021</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1580,16 +1571,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>46015</v>
+        <v>46001</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1597,16 +1588,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="2">
-        <v>46000</v>
+        <v>46008</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1614,16 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1631,16 +1622,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="2">
-        <v>45999</v>
+        <v>46014</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1648,16 +1639,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="2">
-        <v>46001</v>
+        <v>46022</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1665,16 +1656,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1682,16 +1673,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>45999</v>
+        <v>46010</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1699,16 +1690,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1716,16 +1707,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="2">
-        <v>45999</v>
+        <v>46013</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1733,16 +1724,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>45999</v>
+        <v>46010</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1753,13 +1744,13 @@
         <v>46010</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1767,16 +1758,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>46013</v>
+        <v>46006</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1784,16 +1775,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="2">
-        <v>45999</v>
+        <v>46007</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1801,16 +1792,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="2">
-        <v>46013</v>
+        <v>45999</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1818,16 +1809,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1835,16 +1826,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="2">
-        <v>46001</v>
+        <v>46015</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1852,16 +1843,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="2">
-        <v>46003</v>
+        <v>46007</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1869,16 +1860,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>46008</v>
+        <v>45999</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1886,16 +1877,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>46001</v>
+        <v>46013</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1903,16 +1894,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1920,16 +1911,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="2">
-        <v>45999</v>
+        <v>46016</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1937,16 +1928,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="2">
-        <v>46001</v>
+        <v>46014</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1954,16 +1945,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="2">
-        <v>46000</v>
+        <v>46018</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1971,16 +1962,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="2">
-        <v>46002</v>
+        <v>46017</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1988,16 +1979,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="2">
-        <v>46001</v>
+        <v>46018</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2005,16 +1996,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="2">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2022,16 +2013,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="2">
-        <v>46003</v>
+        <v>46015</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2039,16 +2030,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="2">
-        <v>46000</v>
+        <v>46016</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2056,67 +2047,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="2">
-        <v>46000</v>
+        <v>46021</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="2">
-        <v>46002</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="2">
-        <v>45999</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="2">
-        <v>46001</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
